--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-governance_simpl/museum_activity_groups__var2-accreditation-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-governance_simpl/museum_activity_groups__var2-accreditation-governance_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -478,150 +481,204 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1493648</v>
+        <v>678992</v>
       </c>
       <c r="D4">
-        <v>2424.8</v>
+        <v>1102.3</v>
       </c>
       <c r="E4">
-        <v>5011.9</v>
+        <v>1912.2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>832</v>
+        <v>440.5</v>
       </c>
       <c r="I4">
-        <v>2378.8</v>
+        <v>1468.2</v>
       </c>
       <c r="J4">
-        <v>68140</v>
+        <v>18330</v>
       </c>
       <c r="K4">
         <v>616</v>
       </c>
       <c r="L4">
-        <v>3205.3</v>
+        <v>1640.1</v>
       </c>
       <c r="M4">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="N4">
-        <v>75.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="O4">
         <v>0.5</v>
       </c>
       <c r="P4">
-        <v>340752</v>
+        <v>246963</v>
       </c>
       <c r="Q4">
-        <v>553.2</v>
+        <v>400.9</v>
       </c>
       <c r="R4">
-        <v>1077.7</v>
+        <v>1308.3</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -630,43 +687,82 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="V4">
-        <v>776</v>
+        <v>316</v>
       </c>
       <c r="W4">
-        <v>13336</v>
+        <v>18016</v>
       </c>
       <c r="X4">
         <v>616</v>
       </c>
       <c r="Y4">
+        <v>589.4</v>
+      </c>
+      <c r="Z4">
+        <v>419</v>
+      </c>
+      <c r="AA4">
+        <v>68</v>
+      </c>
+      <c r="AB4">
+        <v>0.5</v>
+      </c>
+      <c r="AC4">
+        <v>340752</v>
+      </c>
+      <c r="AD4">
+        <v>553.2</v>
+      </c>
+      <c r="AE4">
+        <v>1077.7</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>776</v>
+      </c>
+      <c r="AJ4">
+        <v>13336</v>
+      </c>
+      <c r="AK4">
+        <v>616</v>
+      </c>
+      <c r="AL4">
         <v>1147.3</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>297</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>48.2</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>1348249</v>
+        <v>753836</v>
       </c>
       <c r="D5">
-        <v>1397.1</v>
+        <v>781.2</v>
       </c>
       <c r="E5">
-        <v>4565.2</v>
+        <v>2484.6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -675,37 +771,37 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="I5">
-        <v>1073</v>
+        <v>838</v>
       </c>
       <c r="J5">
-        <v>74441</v>
+        <v>47580</v>
       </c>
       <c r="K5">
         <v>965</v>
       </c>
       <c r="L5">
-        <v>1883</v>
+        <v>1107</v>
       </c>
       <c r="M5">
-        <v>716</v>
+        <v>681</v>
       </c>
       <c r="N5">
-        <v>74.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P5">
-        <v>252144</v>
+        <v>234775</v>
       </c>
       <c r="Q5">
-        <v>261.3</v>
+        <v>243.3</v>
       </c>
       <c r="R5">
-        <v>506.3</v>
+        <v>765.4</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -714,168 +810,246 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V5">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="W5">
-        <v>6335</v>
+        <v>8505</v>
       </c>
       <c r="X5">
         <v>965</v>
       </c>
       <c r="Y5">
+        <v>340.7</v>
+      </c>
+      <c r="Z5">
+        <v>689</v>
+      </c>
+      <c r="AA5">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.7</v>
+      </c>
+      <c r="AC5">
+        <v>252144</v>
+      </c>
+      <c r="AD5">
+        <v>261.3</v>
+      </c>
+      <c r="AE5">
+        <v>506.3</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>372</v>
+      </c>
+      <c r="AJ5">
+        <v>6335</v>
+      </c>
+      <c r="AK5">
+        <v>965</v>
+      </c>
+      <c r="AL5">
         <v>687</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>367</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>38</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>315367</v>
+        <v>141010</v>
       </c>
       <c r="D6">
-        <v>4505.2</v>
+        <v>2014.4</v>
       </c>
       <c r="E6">
-        <v>8269</v>
+        <v>2432.7</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>642.2</v>
+        <v>239.8</v>
       </c>
       <c r="H6">
-        <v>2206</v>
+        <v>1435.5</v>
       </c>
       <c r="I6">
-        <v>4425.8</v>
+        <v>3134.2</v>
       </c>
       <c r="J6">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K6">
         <v>70</v>
       </c>
       <c r="L6">
-        <v>5005.8</v>
+        <v>2473.9</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N6">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O6">
         <v>1.5</v>
       </c>
       <c r="P6">
-        <v>39532</v>
+        <v>91276</v>
       </c>
       <c r="Q6">
-        <v>564.7</v>
+        <v>1303.9</v>
       </c>
       <c r="R6">
-        <v>643.6</v>
+        <v>5773.3</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="U6">
-        <v>408</v>
+        <v>230.5</v>
       </c>
       <c r="V6">
-        <v>922.2</v>
+        <v>532.5</v>
       </c>
       <c r="W6">
-        <v>3303</v>
+        <v>46992</v>
       </c>
       <c r="X6">
         <v>70</v>
       </c>
       <c r="Y6">
+        <v>1601.3</v>
+      </c>
+      <c r="Z6">
+        <v>57</v>
+      </c>
+      <c r="AA6">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>1.4</v>
+      </c>
+      <c r="AC6">
+        <v>39532</v>
+      </c>
+      <c r="AD6">
+        <v>564.7</v>
+      </c>
+      <c r="AE6">
+        <v>643.6</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>408</v>
+      </c>
+      <c r="AI6">
+        <v>922.2</v>
+      </c>
+      <c r="AJ6">
+        <v>3303</v>
+      </c>
+      <c r="AK6">
+        <v>70</v>
+      </c>
+      <c r="AL6">
         <v>941.2</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>42</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>60</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>165134</v>
+      </c>
+      <c r="D7">
+        <v>922.5</v>
+      </c>
+      <c r="E7">
+        <v>2256</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>461027</v>
-      </c>
-      <c r="D7">
-        <v>2575.6</v>
-      </c>
-      <c r="E7">
-        <v>5235.2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>328</v>
-      </c>
       <c r="I7">
-        <v>2198.5</v>
+        <v>861.5</v>
       </c>
       <c r="J7">
-        <v>30621</v>
+        <v>19900</v>
       </c>
       <c r="K7">
         <v>179</v>
       </c>
       <c r="L7">
-        <v>3974.4</v>
+        <v>1738.3</v>
       </c>
       <c r="M7">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>64.8</v>
+        <v>53.1</v>
       </c>
       <c r="O7">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="P7">
-        <v>105290</v>
+        <v>68684</v>
       </c>
       <c r="Q7">
-        <v>588.2</v>
+        <v>383.7</v>
       </c>
       <c r="R7">
-        <v>1488.4</v>
+        <v>1300.5</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -884,43 +1058,82 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>626.5</v>
+        <v>121</v>
       </c>
       <c r="W7">
-        <v>13336</v>
+        <v>9196</v>
       </c>
       <c r="X7">
         <v>179</v>
       </c>
       <c r="Y7">
+        <v>723</v>
+      </c>
+      <c r="Z7">
+        <v>95</v>
+      </c>
+      <c r="AA7">
+        <v>53.1</v>
+      </c>
+      <c r="AB7">
+        <v>-0.5</v>
+      </c>
+      <c r="AC7">
+        <v>105290</v>
+      </c>
+      <c r="AD7">
+        <v>588.2</v>
+      </c>
+      <c r="AE7">
+        <v>1488.4</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>626.5</v>
+      </c>
+      <c r="AJ7">
+        <v>13336</v>
+      </c>
+      <c r="AK7">
+        <v>179</v>
+      </c>
+      <c r="AL7">
         <v>1571.5</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>67</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>37.4</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1721584</v>
+        <v>625608</v>
       </c>
       <c r="D8">
-        <v>1202.2</v>
+        <v>436.9</v>
       </c>
       <c r="E8">
-        <v>4719.2</v>
+        <v>1579.8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -929,37 +1142,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>602.2</v>
+        <v>382</v>
       </c>
       <c r="J8">
-        <v>72982</v>
+        <v>47571</v>
       </c>
       <c r="K8">
         <v>1432</v>
       </c>
       <c r="L8">
-        <v>2112.4</v>
+        <v>864.1</v>
       </c>
       <c r="M8">
-        <v>815</v>
+        <v>724</v>
       </c>
       <c r="N8">
-        <v>56.9</v>
+        <v>50.6</v>
       </c>
       <c r="O8">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="P8">
-        <v>429617</v>
+        <v>260831</v>
       </c>
       <c r="Q8">
-        <v>300</v>
+        <v>182.1</v>
       </c>
       <c r="R8">
-        <v>1684.9</v>
+        <v>1067.3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -968,82 +1181,121 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="W8">
-        <v>36948</v>
+        <v>20884</v>
       </c>
       <c r="X8">
         <v>1432</v>
       </c>
       <c r="Y8">
+        <v>351.1</v>
+      </c>
+      <c r="Z8">
+        <v>743</v>
+      </c>
+      <c r="AA8">
+        <v>51.9</v>
+      </c>
+      <c r="AB8">
+        <v>-0.6</v>
+      </c>
+      <c r="AC8">
+        <v>429617</v>
+      </c>
+      <c r="AD8">
+        <v>300</v>
+      </c>
+      <c r="AE8">
+        <v>1684.9</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>133</v>
+      </c>
+      <c r="AJ8">
+        <v>36948</v>
+      </c>
+      <c r="AK8">
+        <v>1432</v>
+      </c>
+      <c r="AL8">
         <v>1045.3</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>411</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>28.7</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>43097</v>
+        <v>18965</v>
       </c>
       <c r="D9">
-        <v>1959</v>
+        <v>862</v>
       </c>
       <c r="E9">
-        <v>3207.8</v>
+        <v>1094.6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>733</v>
+        <v>234</v>
       </c>
       <c r="I9">
-        <v>2573.8</v>
+        <v>1759.8</v>
       </c>
       <c r="J9">
-        <v>14129</v>
+        <v>3386</v>
       </c>
       <c r="K9">
         <v>22</v>
       </c>
       <c r="L9">
-        <v>2693.6</v>
+        <v>1354.6</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N9">
-        <v>72.7</v>
+        <v>63.6</v>
       </c>
       <c r="O9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P9">
-        <v>12055</v>
+        <v>3680</v>
       </c>
       <c r="Q9">
-        <v>548</v>
+        <v>167.3</v>
       </c>
       <c r="R9">
-        <v>1175.9</v>
+        <v>304.5</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1052,43 +1304,82 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V9">
-        <v>734.8</v>
+        <v>204.5</v>
       </c>
       <c r="W9">
-        <v>5316</v>
+        <v>1258</v>
       </c>
       <c r="X9">
         <v>22</v>
       </c>
       <c r="Y9">
+        <v>262.9</v>
+      </c>
+      <c r="Z9">
+        <v>14</v>
+      </c>
+      <c r="AA9">
+        <v>63.6</v>
+      </c>
+      <c r="AB9">
+        <v>0.2</v>
+      </c>
+      <c r="AC9">
+        <v>12055</v>
+      </c>
+      <c r="AD9">
+        <v>548</v>
+      </c>
+      <c r="AE9">
+        <v>1175.9</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>734.8</v>
+      </c>
+      <c r="AJ9">
+        <v>5316</v>
+      </c>
+      <c r="AK9">
+        <v>22</v>
+      </c>
+      <c r="AL9">
         <v>1339.4</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>9</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>40.9</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>59979</v>
+        <v>20284</v>
       </c>
       <c r="D10">
-        <v>1090.5</v>
+        <v>368.8</v>
       </c>
       <c r="E10">
-        <v>3863.5</v>
+        <v>1006.2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1100,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>209.5</v>
+        <v>107.5</v>
       </c>
       <c r="J10">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="K10">
         <v>55</v>
       </c>
       <c r="L10">
-        <v>2499.1</v>
+        <v>922</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N10">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="O10">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="P10">
-        <v>7226</v>
+        <v>2853</v>
       </c>
       <c r="Q10">
-        <v>131.4</v>
+        <v>51.9</v>
       </c>
       <c r="R10">
-        <v>343.6</v>
+        <v>132.5</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1139,31 +1430,71 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W10">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X10">
         <v>55</v>
       </c>
       <c r="Y10">
+        <v>142.6</v>
+      </c>
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>36.4</v>
+      </c>
+      <c r="AB10">
+        <v>-1.6</v>
+      </c>
+      <c r="AC10">
+        <v>7226</v>
+      </c>
+      <c r="AD10">
+        <v>131.4</v>
+      </c>
+      <c r="AE10">
+        <v>343.6</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1735</v>
+      </c>
+      <c r="AK10">
+        <v>55</v>
+      </c>
+      <c r="AL10">
         <v>555.8</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>13</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>23.6</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>-1.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-governance_simpl/museum_activity_groups__var2-accreditation-governance_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-governance_simpl/museum_activity_groups__var2-accreditation-governance_simpl.xlsx
@@ -633,13 +633,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>678992</v>
+        <v>794859</v>
       </c>
       <c r="D4">
-        <v>1102.3</v>
+        <v>1290.4</v>
       </c>
       <c r="E4">
-        <v>1912.2</v>
+        <v>2353.9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -648,37 +648,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>440.5</v>
+        <v>510</v>
       </c>
       <c r="I4">
-        <v>1468.2</v>
+        <v>1756.2</v>
       </c>
       <c r="J4">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K4">
         <v>616</v>
       </c>
       <c r="L4">
-        <v>1640.1</v>
+        <v>1967.5</v>
       </c>
       <c r="M4">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="N4">
-        <v>67.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="O4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
-        <v>246963</v>
+        <v>289499</v>
       </c>
       <c r="Q4">
-        <v>400.9</v>
+        <v>470</v>
       </c>
       <c r="R4">
-        <v>1308.3</v>
+        <v>1595.4</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -687,37 +687,37 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>56.5</v>
+        <v>63</v>
       </c>
       <c r="V4">
-        <v>316</v>
+        <v>348.2</v>
       </c>
       <c r="W4">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X4">
         <v>616</v>
       </c>
       <c r="Y4">
-        <v>589.4</v>
+        <v>704.4</v>
       </c>
       <c r="Z4">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AA4">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC4">
-        <v>340752</v>
+        <v>399102</v>
       </c>
       <c r="AD4">
-        <v>553.2</v>
+        <v>647.9</v>
       </c>
       <c r="AE4">
-        <v>1077.7</v>
+        <v>820.8</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="AI4">
-        <v>776</v>
+        <v>1074.5</v>
       </c>
       <c r="AJ4">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AK4">
         <v>616</v>
       </c>
       <c r="AL4">
-        <v>1147.3</v>
+        <v>919.6</v>
       </c>
       <c r="AM4">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="AN4">
-        <v>48.2</v>
+        <v>70.5</v>
       </c>
       <c r="AO4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -756,13 +756,13 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>753836</v>
+        <v>888413</v>
       </c>
       <c r="D5">
-        <v>781.2</v>
+        <v>920.6</v>
       </c>
       <c r="E5">
-        <v>2484.6</v>
+        <v>2920</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -771,37 +771,37 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="I5">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="J5">
-        <v>47580</v>
+        <v>55081</v>
       </c>
       <c r="K5">
         <v>965</v>
       </c>
       <c r="L5">
-        <v>1107</v>
+        <v>1322</v>
       </c>
       <c r="M5">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="N5">
-        <v>70.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="O5">
         <v>0.7</v>
       </c>
       <c r="P5">
-        <v>234775</v>
+        <v>270025</v>
       </c>
       <c r="Q5">
-        <v>243.3</v>
+        <v>279.8</v>
       </c>
       <c r="R5">
-        <v>765.4</v>
+        <v>895.7</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -810,37 +810,37 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V5">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="W5">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X5">
         <v>965</v>
       </c>
       <c r="Y5">
-        <v>340.7</v>
+        <v>395.9</v>
       </c>
       <c r="Z5">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AA5">
-        <v>71.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="AB5">
         <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>252144</v>
+        <v>433055</v>
       </c>
       <c r="AD5">
-        <v>261.3</v>
+        <v>448.8</v>
       </c>
       <c r="AE5">
-        <v>506.3</v>
+        <v>599.7</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -849,28 +849,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="AI5">
-        <v>372</v>
+        <v>652</v>
       </c>
       <c r="AJ5">
-        <v>6335</v>
+        <v>5325</v>
       </c>
       <c r="AK5">
         <v>965</v>
       </c>
       <c r="AL5">
-        <v>687</v>
+        <v>623.1</v>
       </c>
       <c r="AM5">
-        <v>367</v>
+        <v>695</v>
       </c>
       <c r="AN5">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AO5">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -879,121 +879,121 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>141010</v>
+        <v>165551</v>
       </c>
       <c r="D6">
-        <v>2014.4</v>
+        <v>2365</v>
       </c>
       <c r="E6">
-        <v>2432.7</v>
+        <v>2812.9</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>239.8</v>
+        <v>326.8</v>
       </c>
       <c r="H6">
-        <v>1435.5</v>
+        <v>1632</v>
       </c>
       <c r="I6">
-        <v>3134.2</v>
+        <v>3697.8</v>
       </c>
       <c r="J6">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K6">
         <v>70</v>
       </c>
       <c r="L6">
-        <v>2473.9</v>
+        <v>2956.3</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>1.5</v>
       </c>
       <c r="P6">
-        <v>91276</v>
+        <v>99578</v>
       </c>
       <c r="Q6">
-        <v>1303.9</v>
+        <v>1422.5</v>
       </c>
       <c r="R6">
-        <v>5773.3</v>
+        <v>6031.9</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>46.8</v>
+        <v>56.2</v>
       </c>
       <c r="U6">
-        <v>230.5</v>
+        <v>241.5</v>
       </c>
       <c r="V6">
-        <v>532.5</v>
+        <v>659.8</v>
       </c>
       <c r="W6">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X6">
         <v>70</v>
       </c>
       <c r="Y6">
-        <v>1601.3</v>
+        <v>1778.2</v>
       </c>
       <c r="Z6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA6">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="AB6">
         <v>1.4</v>
       </c>
       <c r="AC6">
-        <v>39532</v>
+        <v>45694</v>
       </c>
       <c r="AD6">
-        <v>564.7</v>
+        <v>652.8</v>
       </c>
       <c r="AE6">
-        <v>643.6</v>
+        <v>661</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH6">
-        <v>408</v>
+        <v>436.5</v>
       </c>
       <c r="AI6">
-        <v>922.2</v>
+        <v>1141.5</v>
       </c>
       <c r="AJ6">
-        <v>3303</v>
+        <v>2204</v>
       </c>
       <c r="AK6">
         <v>70</v>
       </c>
       <c r="AL6">
-        <v>941.2</v>
+        <v>878.7</v>
       </c>
       <c r="AM6">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AN6">
-        <v>60</v>
+        <v>74.3</v>
       </c>
       <c r="AO6">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>165134</v>
+        <v>196201</v>
       </c>
       <c r="D7">
-        <v>922.5</v>
+        <v>1096.1</v>
       </c>
       <c r="E7">
-        <v>2256</v>
+        <v>2726.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>861.5</v>
+        <v>1012</v>
       </c>
       <c r="J7">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K7">
         <v>179</v>
       </c>
       <c r="L7">
-        <v>1738.3</v>
+        <v>2065.3</v>
       </c>
       <c r="M7">
         <v>95</v>
@@ -1040,16 +1040,16 @@
         <v>53.1</v>
       </c>
       <c r="O7">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P7">
-        <v>68684</v>
+        <v>77644</v>
       </c>
       <c r="Q7">
-        <v>383.7</v>
+        <v>433.8</v>
       </c>
       <c r="R7">
-        <v>1300.5</v>
+        <v>1448.7</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>121</v>
+        <v>136.5</v>
       </c>
       <c r="W7">
-        <v>9196</v>
+        <v>10080</v>
       </c>
       <c r="X7">
         <v>179</v>
       </c>
       <c r="Y7">
-        <v>723</v>
+        <v>817.3</v>
       </c>
       <c r="Z7">
         <v>95</v>
@@ -1082,13 +1082,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>105290</v>
+        <v>95551</v>
       </c>
       <c r="AD7">
-        <v>588.2</v>
+        <v>533.8</v>
       </c>
       <c r="AE7">
-        <v>1488.4</v>
+        <v>876.5</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1097,28 +1097,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI7">
-        <v>626.5</v>
+        <v>787</v>
       </c>
       <c r="AJ7">
-        <v>13336</v>
+        <v>6193</v>
       </c>
       <c r="AK7">
         <v>179</v>
       </c>
       <c r="AL7">
-        <v>1571.5</v>
+        <v>1038.6</v>
       </c>
       <c r="AM7">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AN7">
-        <v>37.4</v>
+        <v>51.4</v>
       </c>
       <c r="AO7">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1127,13 +1127,13 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>625608</v>
+        <v>729459</v>
       </c>
       <c r="D8">
-        <v>436.9</v>
+        <v>509.4</v>
       </c>
       <c r="E8">
-        <v>1579.8</v>
+        <v>1796.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1145,34 +1145,34 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="J8">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K8">
         <v>1432</v>
       </c>
       <c r="L8">
-        <v>864.1</v>
+        <v>1010.3</v>
       </c>
       <c r="M8">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N8">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
       <c r="O8">
         <v>-0.7</v>
       </c>
       <c r="P8">
-        <v>260831</v>
+        <v>309148</v>
       </c>
       <c r="Q8">
-        <v>182.1</v>
+        <v>215.9</v>
       </c>
       <c r="R8">
-        <v>1067.3</v>
+        <v>1286.3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1184,34 +1184,34 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="W8">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X8">
         <v>1432</v>
       </c>
       <c r="Y8">
-        <v>351.1</v>
+        <v>415.5</v>
       </c>
       <c r="Z8">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AA8">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="AB8">
         <v>-0.6</v>
       </c>
       <c r="AC8">
-        <v>429617</v>
+        <v>469182</v>
       </c>
       <c r="AD8">
-        <v>300</v>
+        <v>327.6</v>
       </c>
       <c r="AE8">
-        <v>1684.9</v>
+        <v>550.4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AI8">
-        <v>133</v>
+        <v>468.8</v>
       </c>
       <c r="AJ8">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK8">
         <v>1432</v>
       </c>
       <c r="AL8">
-        <v>1045.3</v>
+        <v>563.9</v>
       </c>
       <c r="AM8">
-        <v>411</v>
+        <v>832</v>
       </c>
       <c r="AN8">
-        <v>28.7</v>
+        <v>58.1</v>
       </c>
       <c r="AO8">
-        <v>-0.9</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1250,13 +1250,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>18965</v>
+        <v>22909</v>
       </c>
       <c r="D9">
-        <v>862</v>
+        <v>1041.3</v>
       </c>
       <c r="E9">
-        <v>1094.6</v>
+        <v>1313.5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>234</v>
+        <v>257.5</v>
       </c>
       <c r="I9">
-        <v>1759.8</v>
+        <v>2184.2</v>
       </c>
       <c r="J9">
-        <v>3386</v>
+        <v>4285</v>
       </c>
       <c r="K9">
         <v>22</v>
       </c>
       <c r="L9">
-        <v>1354.6</v>
+        <v>1636.4</v>
       </c>
       <c r="M9">
         <v>14</v>
@@ -1289,13 +1289,13 @@
         <v>0.2</v>
       </c>
       <c r="P9">
-        <v>3680</v>
+        <v>4431</v>
       </c>
       <c r="Q9">
-        <v>167.3</v>
+        <v>201.4</v>
       </c>
       <c r="R9">
-        <v>304.5</v>
+        <v>352.3</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="V9">
-        <v>204.5</v>
+        <v>233</v>
       </c>
       <c r="W9">
-        <v>1258</v>
+        <v>1437</v>
       </c>
       <c r="X9">
         <v>22</v>
       </c>
       <c r="Y9">
-        <v>262.9</v>
+        <v>316.5</v>
       </c>
       <c r="Z9">
         <v>14</v>
@@ -1328,13 +1328,13 @@
         <v>0.2</v>
       </c>
       <c r="AC9">
-        <v>12055</v>
+        <v>6924</v>
       </c>
       <c r="AD9">
-        <v>548</v>
+        <v>314.7</v>
       </c>
       <c r="AE9">
-        <v>1175.9</v>
+        <v>535.8</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>734.8</v>
+        <v>455.8</v>
       </c>
       <c r="AJ9">
-        <v>5316</v>
+        <v>1845</v>
       </c>
       <c r="AK9">
         <v>22</v>
       </c>
       <c r="AL9">
-        <v>1339.4</v>
+        <v>865.5</v>
       </c>
       <c r="AM9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN9">
-        <v>40.9</v>
+        <v>36.4</v>
       </c>
       <c r="AO9">
-        <v>0.1</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1373,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>20284</v>
+        <v>25556</v>
       </c>
       <c r="D10">
-        <v>368.8</v>
+        <v>464.7</v>
       </c>
       <c r="E10">
-        <v>1006.2</v>
+        <v>1305.2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>107.5</v>
+        <v>130</v>
       </c>
       <c r="J10">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="K10">
         <v>55</v>
       </c>
       <c r="L10">
-        <v>922</v>
+        <v>1161.6</v>
       </c>
       <c r="M10">
         <v>22</v>
@@ -1412,13 +1412,13 @@
         <v>-1.5</v>
       </c>
       <c r="P10">
-        <v>2853</v>
+        <v>3929</v>
       </c>
       <c r="Q10">
-        <v>51.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R10">
-        <v>132.5</v>
+        <v>198.9</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1430,34 +1430,34 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W10">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X10">
         <v>55</v>
       </c>
       <c r="Y10">
-        <v>142.6</v>
+        <v>187.1</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA10">
-        <v>36.4</v>
+        <v>38.2</v>
       </c>
       <c r="AB10">
         <v>-1.6</v>
       </c>
       <c r="AC10">
-        <v>7226</v>
+        <v>15178</v>
       </c>
       <c r="AD10">
-        <v>131.4</v>
+        <v>276</v>
       </c>
       <c r="AE10">
-        <v>343.6</v>
+        <v>583.9</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1466,28 +1466,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ10">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK10">
         <v>55</v>
       </c>
       <c r="AL10">
-        <v>555.8</v>
+        <v>523.4</v>
       </c>
       <c r="AM10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AN10">
-        <v>23.6</v>
+        <v>52.7</v>
       </c>
       <c r="AO10">
-        <v>-1.3</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
